--- a/config/DB 구조.xlsx
+++ b/config/DB 구조.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06.dfm\production\factoryModelerProduction\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2F4E1E-E72A-4643-BA7D-80582FCDD15E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56DA9A2-DDF9-4F40-866E-02054CA4CDEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" activeTab="3" xr2:uid="{71BBE9C7-031F-429C-82B5-F7C6D6D8778B}"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{71BBE9C7-031F-429C-82B5-F7C6D6D8778B}"/>
   </bookViews>
   <sheets>
     <sheet name="FM_METADATA" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="74">
   <si>
     <t>TABLENAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +59,6 @@
   </si>
   <si>
     <t>COLUMNNAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORDER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -341,6 +337,14 @@
   </si>
   <si>
     <t>MESSAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECTQUERY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COLUMNORDER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,7 +403,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -432,6 +436,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -758,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212C5686-905D-4440-942E-E44DF28F1623}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -772,29 +779,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -802,10 +809,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -813,36 +820,36 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -850,127 +857,130 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="63.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
         <v>61</v>
-      </c>
-      <c r="E11" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="A14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1000,51 +1010,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="A1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -1052,31 +1062,31 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -1085,69 +1095,69 @@
     </row>
     <row r="9" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="A10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1177,211 +1187,211 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="A1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="7"/>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="7"/>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="7"/>
       <c r="E9" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="63.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="9"/>
       <c r="E10" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="A14" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1398,7 +1408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFDC086-F815-4587-8076-6AAFCDEAFBFA}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
@@ -1411,29 +1421,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="A1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -1441,100 +1451,100 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="7"/>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="87" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="7"/>
       <c r="E4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="A7" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1564,29 +1574,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="A1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -1594,100 +1604,100 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="7"/>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="87" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="7"/>
       <c r="E4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="A7" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1717,29 +1727,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="A1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -1747,100 +1757,100 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="7"/>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="87" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="7"/>
       <c r="E4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="A7" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1870,93 +1880,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="A1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2"/>
     </row>
@@ -1974,69 +1984,69 @@
     </row>
     <row r="13" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="A14" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2066,53 +2076,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="A1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
       <c r="E1" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -2120,13 +2130,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -2134,23 +2144,23 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2"/>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -2167,69 +2177,69 @@
     </row>
     <row r="13" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="A14" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/config/DB 구조.xlsx
+++ b/config/DB 구조.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06.dfm\production\factoryModelerProduction\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56DA9A2-DDF9-4F40-866E-02054CA4CDEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC98D6FA-CD44-4E4B-9C3D-FF86AE4AAC98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{71BBE9C7-031F-429C-82B5-F7C6D6D8778B}"/>
   </bookViews>
@@ -766,7 +766,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/config/DB 구조.xlsx
+++ b/config/DB 구조.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06.dfm\production\factoryModelerProduction\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC98D6FA-CD44-4E4B-9C3D-FF86AE4AAC98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F49D7A-057B-4DF1-9063-E33A2BF1D29A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{71BBE9C7-031F-429C-82B5-F7C6D6D8778B}"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" firstSheet="2" activeTab="5" xr2:uid="{71BBE9C7-031F-429C-82B5-F7C6D6D8778B}"/>
   </bookViews>
   <sheets>
     <sheet name="FM_METADATA" sheetId="1" r:id="rId1"/>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SQL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR2 (40)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -346,6 +342,9 @@
   <si>
     <t>COLUMNORDER</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VALIDATIONQUERY</t>
   </si>
 </sst>
 </file>
@@ -765,7 +764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212C5686-905D-4440-942E-E44DF28F1623}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -789,19 +788,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -809,10 +808,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -820,24 +819,24 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -845,11 +844,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -857,11 +856,11 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -869,14 +868,14 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -884,42 +883,42 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="63.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
         <v>60</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -998,7 +997,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B7"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1011,7 +1010,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -1020,41 +1019,41 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -1062,31 +1061,31 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -1096,7 +1095,7 @@
     <row r="9" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -1188,7 +1187,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -1197,140 +1196,140 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="7"/>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="7"/>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="7"/>
       <c r="E9" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="63.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="9"/>
       <c r="E10" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -1409,7 +1408,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="A5:B5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1422,7 +1421,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -1431,19 +1430,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -1451,39 +1450,39 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="7"/>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="87" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="7"/>
       <c r="E4" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -1562,7 +1561,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1575,7 +1574,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -1584,19 +1583,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -1604,39 +1603,39 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="7"/>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="87" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="7"/>
       <c r="E4" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -1714,8 +1713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED5E564-4255-4A18-B436-8A960072E341}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1728,7 +1727,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -1737,19 +1736,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -1757,39 +1756,39 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="7"/>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="87" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="7"/>
       <c r="E4" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -1881,7 +1880,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -1890,83 +1889,83 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2"/>
     </row>
@@ -1985,7 +1984,7 @@
     <row r="13" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -2077,52 +2076,52 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
       <c r="E1" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -2130,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -2144,23 +2143,23 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2"/>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -2178,7 +2177,7 @@
     <row r="13" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>

--- a/config/DB 구조.xlsx
+++ b/config/DB 구조.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06.dfm\production\factoryModelerProduction\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F49D7A-057B-4DF1-9063-E33A2BF1D29A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7C05F0-6CA7-46A5-9DF7-59740978D774}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" firstSheet="2" activeTab="5" xr2:uid="{71BBE9C7-031F-429C-82B5-F7C6D6D8778B}"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{71BBE9C7-031F-429C-82B5-F7C6D6D8778B}"/>
   </bookViews>
   <sheets>
     <sheet name="FM_METADATA" sheetId="1" r:id="rId1"/>
@@ -764,7 +764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212C5686-905D-4440-942E-E44DF28F1623}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1713,7 +1713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED5E564-4255-4A18-B436-8A960072E341}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/config/DB 구조.xlsx
+++ b/config/DB 구조.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06.dfm\production\factoryModelerProduction\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7C05F0-6CA7-46A5-9DF7-59740978D774}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95506E1-264B-4BA1-B220-E659BDD1392B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{71BBE9C7-031F-429C-82B5-F7C6D6D8778B}"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" activeTab="1" xr2:uid="{71BBE9C7-031F-429C-82B5-F7C6D6D8778B}"/>
   </bookViews>
   <sheets>
     <sheet name="FM_METADATA" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="77">
   <si>
     <t>TABLENAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -345,6 +345,18 @@
   </si>
   <si>
     <t>VALIDATIONQUERY</t>
+  </si>
+  <si>
+    <t>TABLENAME :  FM_UPDATE_CONSTRAINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TABLENAME :  FM_DELETE_CONSTRAINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPTIONS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -764,7 +776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212C5686-905D-4440-942E-E44DF28F1623}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -996,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23CE4D3-570C-498D-B941-7B0142E02AB7}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1078,7 +1090,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
@@ -1408,7 +1420,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A7" sqref="A7:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1561,7 +1573,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1574,7 +1586,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -1714,7 +1726,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1727,7 +1739,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
